--- a/Achievment four Project/05 Sent to Clinet/Achievement 4 Final Report.xlsx
+++ b/Achievment four Project/05 Sent to Clinet/Achievement 4 Final Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahstrassmann/Desktop/Achievment four Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahstrassmann/Desktop/Achievment four Project/05 Sent to Clinet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA17CB33-BE85-7D47-812D-96842774631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2DC59-6457-304B-93E6-F74D75302E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35280" yWindow="4400" windowWidth="33760" windowHeight="19980" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37660" yWindow="5100" windowWidth="33760" windowHeight="19980" tabRatio="808" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <sheet name="work ret spender" sheetId="20" r:id="rId16"/>
     <sheet name="work ret freque" sheetId="21" r:id="rId17"/>
     <sheet name="fam and spender flag" sheetId="22" r:id="rId18"/>
+    <sheet name="loyalty and spending" sheetId="23" r:id="rId19"/>
+    <sheet name="loyalty and frequency" sheetId="24" r:id="rId20"/>
+    <sheet name="loyalty and income" sheetId="25" r:id="rId21"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
   <si>
     <t>Contents:</t>
   </si>
@@ -339,12 +339,18 @@
   <si>
     <t>Totals</t>
   </si>
+  <si>
+    <t>loyal customer</t>
+  </si>
+  <si>
+    <t>new customer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +424,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -833,12 +846,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -884,10 +898,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{AD3A8363-03A9-4F49-931A-F278C33111BC}"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="2" xr:uid="{7D47C11A-901A-704F-8395-A2F512177BE6}"/>
   </cellStyles>
   <dxfs count="2">
@@ -1947,6 +1963,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38766624843161862"/>
+          <c:y val="1.6830294530154277E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2217,6 +2241,1443 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1109762847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Loyalty</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> and Spending Habits</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4648301562527401"/>
+          <c:y val="1.6826923076923076E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and spending'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loyal customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and spending'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>high spender</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low spender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and spending'!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>187243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9368248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45A1-6F49-B7A9-FC04EFDDF128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and spending'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>new customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and spending'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>high spender</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low spender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and spending'!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2081526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45A1-6F49-B7A9-FC04EFDDF128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and spending'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and spending'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>high spender</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low spender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and spending'!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>217458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12527100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-45A1-6F49-B7A9-FC04EFDDF128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="470039007"/>
+        <c:axId val="470057295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="470039007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470057295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470057295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470039007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Loyalty and Frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and frequency'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequent customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and frequency'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>loyal customer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and frequency'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9551879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8008430</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E474-1646-8BC7-BCABD2E3D712}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and frequency'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>non-frequent customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and frequency'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>loyal customer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and frequency'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>840042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>623476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E474-1646-8BC7-BCABD2E3D712}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and frequency'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and frequency'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>loyal customer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and frequency'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>698337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4112652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E474-1646-8BC7-BCABD2E3D712}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="815917536"/>
+        <c:axId val="815919248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815917536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815919248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815919248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815917536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Loyalty and Income</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and income'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and income'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>loyal customer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and income'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>85701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3946-E74D-B6D5-DEDE1278F2CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and income'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>below-average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and income'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>loyal customer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and income'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2209841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3006468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3946-E74D-B6D5-DEDE1278F2CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loyalty and income'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>over-average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'loyalty and income'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>loyal customer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regular customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'loyalty and income'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7259949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1547793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9619770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3946-E74D-B6D5-DEDE1278F2CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="815994176"/>
+        <c:axId val="815995888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815994176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815995888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815995888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815994176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6190,6 +7651,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7517,6 +9098,1515 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24125,6 +27215,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ADD0A8-5B4D-6EDC-61CB-9F232B3AEEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -26365,6 +29496,88 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE93EE3-F106-9594-991A-104A3DD7A304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780C14B-56EB-ABBE-A991-4C3162504C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -31838,6 +35051,14 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>--&gt; No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> differences in ordering habits based on a customers loyalty status were found.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
         <a:p>
@@ -32234,277 +35455,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="fam price range"/>
-      <sheetName val="price fam single"/>
-      <sheetName val="price by income"/>
-      <sheetName val="fam and freque cust"/>
-      <sheetName val="work ret freque"/>
-      <sheetName val="fam and spender flag"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>high-range product</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>low-range product</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>mid-range product</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>family</v>
-          </cell>
-          <cell r="B2">
-            <v>233151</v>
-          </cell>
-          <cell r="C2">
-            <v>5719359</v>
-          </cell>
-          <cell r="D2">
-            <v>12357365</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>single</v>
-          </cell>
-          <cell r="B3">
-            <v>75027</v>
-          </cell>
-          <cell r="C3">
-            <v>1907386</v>
-          </cell>
-          <cell r="D3">
-            <v>4122589</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>high-range product</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>low-range product</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>mid-range product</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>retired</v>
-          </cell>
-          <cell r="B2">
-            <v>82892</v>
-          </cell>
-          <cell r="C2">
-            <v>2016693</v>
-          </cell>
-          <cell r="D2">
-            <v>4358865</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>working</v>
-          </cell>
-          <cell r="B3">
-            <v>225286</v>
-          </cell>
-          <cell r="C3">
-            <v>5610052</v>
-          </cell>
-          <cell r="D3">
-            <v>12121089</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>high-range product</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>low-range product</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>mid-range product</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>average</v>
-          </cell>
-          <cell r="B2">
-            <v>2922</v>
-          </cell>
-          <cell r="C2">
-            <v>66443</v>
-          </cell>
-          <cell r="D2">
-            <v>154410</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>below-average</v>
-          </cell>
-          <cell r="B3">
-            <v>51582</v>
-          </cell>
-          <cell r="C3">
-            <v>2075742</v>
-          </cell>
-          <cell r="D3">
-            <v>3636266</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>over-average</v>
-          </cell>
-          <cell r="B4">
-            <v>253674</v>
-          </cell>
-          <cell r="C4">
-            <v>5484560</v>
-          </cell>
-          <cell r="D4">
-            <v>12689278</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>frequent customer</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>non-frequent customer</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>regular customer</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>family</v>
-          </cell>
-          <cell r="B2">
-            <v>13612248</v>
-          </cell>
-          <cell r="C2">
-            <v>1102205</v>
-          </cell>
-          <cell r="D2">
-            <v>3595422</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>single</v>
-          </cell>
-          <cell r="B3">
-            <v>4524510</v>
-          </cell>
-          <cell r="C3">
-            <v>361313</v>
-          </cell>
-          <cell r="D3">
-            <v>1219179</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>frequent customer</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>non-frequent customer</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>regular customer</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>retired</v>
-          </cell>
-          <cell r="B2">
-            <v>4814656</v>
-          </cell>
-          <cell r="C2">
-            <v>382791</v>
-          </cell>
-          <cell r="D2">
-            <v>1261003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>working</v>
-          </cell>
-          <cell r="B3">
-            <v>13322102</v>
-          </cell>
-          <cell r="C3">
-            <v>1080727</v>
-          </cell>
-          <cell r="D3">
-            <v>3553598</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>high spender</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>low spender</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>family</v>
-          </cell>
-          <cell r="B2">
-            <v>330536</v>
-          </cell>
-          <cell r="C2">
-            <v>17979339</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>single</v>
-          </cell>
-          <cell r="B3">
-            <v>107467</v>
-          </cell>
-          <cell r="C3">
-            <v>5997535</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33509,6 +36459,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E15842-62AD-BA40-B182-43D6FF19399B}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N47" sqref="N47:N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>187243</v>
+      </c>
+      <c r="C2">
+        <v>9368248</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:C2)</f>
+        <v>9555491</v>
+      </c>
+      <c r="G2" s="39">
+        <f>B2/E2</f>
+        <v>1.9595330056822825E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>33302</v>
+      </c>
+      <c r="C3">
+        <v>2081526</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">SUM(B3:C3)</f>
+        <v>2114828</v>
+      </c>
+      <c r="G3" s="39">
+        <f t="shared" ref="G3:G4" si="1">B3/E3</f>
+        <v>1.5746907077076717E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>217458</v>
+      </c>
+      <c r="C4">
+        <v>12527100</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12744558</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" si="1"/>
+        <v>1.7062812221498778E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Y1:Y6"/>
@@ -33541,6 +36575,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23ECDD5-0E4E-CB43-BBE9-E0063100DEE8}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>9551879</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>576449</v>
+      </c>
+      <c r="C3">
+        <v>840042</v>
+      </c>
+      <c r="D3">
+        <v>698337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>8008430</v>
+      </c>
+      <c r="C4">
+        <v>623476</v>
+      </c>
+      <c r="D4">
+        <v>4112652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8AEF27-A826-8D4C-9A70-CBF9A77730F5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>85701</v>
+      </c>
+      <c r="C2">
+        <v>2209841</v>
+      </c>
+      <c r="D2">
+        <v>7259949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>19754</v>
+      </c>
+      <c r="C3">
+        <v>547281</v>
+      </c>
+      <c r="D3">
+        <v>1547793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>118320</v>
+      </c>
+      <c r="C4">
+        <v>3006468</v>
+      </c>
+      <c r="D4">
+        <v>9619770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34045,7 +37223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="Q1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F30" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="S84" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AY58" sqref="AY58"/>
     </sheetView>
   </sheetViews>
@@ -34074,7 +37252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="142" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="142" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
